--- a/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
@@ -19,10 +19,8 @@
     <sheet name="UME_RESOURCE" sheetId="48" r:id="rId5"/>
     <sheet name="UME_ROLE_ACL" sheetId="38" r:id="rId6"/>
     <sheet name="UME_SEQ" sheetId="49" r:id="rId7"/>
-    <sheet name="GXT_USER" sheetId="50" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">GXT_USER!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">UME_RESOURCE!$A$1:$I$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">UME_ROLE!$A$1:$I$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">UME_ROLE_ACL!$A$1:$I$9</definedName>
@@ -198,34 +196,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">N : NOT NULL 
-ND : NOT NULL WITH DEFAULT
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="140">
   <si>
     <t>○</t>
   </si>
@@ -637,54 +609,6 @@
     <t>用户身份证号码</t>
   </si>
   <si>
-    <t>WECHAT_OPENID</t>
-  </si>
-  <si>
-    <t>WECHAT_CITY</t>
-  </si>
-  <si>
-    <t>WECHAT_COUNTRY</t>
-  </si>
-  <si>
-    <t>WECHAT_HEADIMGURL</t>
-  </si>
-  <si>
-    <t>WECHAT_LANGUAGE</t>
-  </si>
-  <si>
-    <t>WECHAT_NICKNAME</t>
-  </si>
-  <si>
-    <t>WECHAT_PROVINCE</t>
-  </si>
-  <si>
-    <t>WECHAT_SEX</t>
-  </si>
-  <si>
-    <t>WECHAT_UNIONID</t>
-  </si>
-  <si>
-    <t>WECHAT_PRIVILEGE</t>
-  </si>
-  <si>
-    <t>WECHAT_GROUPID</t>
-  </si>
-  <si>
-    <t>WECHAT_TAGID_LIST</t>
-  </si>
-  <si>
-    <t>WECHAT_SUBSCRIBE</t>
-  </si>
-  <si>
-    <t>WECHAT_SUBSCRIBE_TIME</t>
-  </si>
-  <si>
-    <t>时间戳</t>
-  </si>
-  <si>
-    <t>关联微信属性</t>
-  </si>
-  <si>
     <t>用户收货地址(默认)</t>
   </si>
   <si>
@@ -701,9 +625,6 @@
   </si>
   <si>
     <t>用户收货地址(备用)</t>
-  </si>
-  <si>
-    <t>GXT_USER</t>
   </si>
 </sst>
 </file>
@@ -719,7 +640,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="104" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1357,6 +1278,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF002060"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -3830,7 +3757,7 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3990,8 +3917,26 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="104" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="104" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4005,6 +3950,12 @@
     <xf numFmtId="168" fontId="103" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4013,12 +3964,6 @@
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5376,185 +5321,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="67" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67" t="s">
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67" t="s">
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67" t="s">
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="68"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80">
         <v>20150001</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="69" t="s">
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="62">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="65">
         <v>42796</v>
       </c>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="61" t="s">
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62">
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65">
         <v>42796</v>
       </c>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="61" t="s">
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
     </row>
     <row r="3" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
     </row>
     <row r="4" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="43"/>
@@ -5563,570 +5508,570 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="75" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="75" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="64" t="s">
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="65"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="71"/>
       <c r="AX5" s="44"/>
       <c r="AY5" s="44"/>
       <c r="AZ5" s="44"/>
       <c r="BA5" s="45"/>
     </row>
     <row r="6" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78">
+      <c r="A6" s="84">
         <v>1</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="55">
+      <c r="B6" s="85"/>
+      <c r="C6" s="61">
         <v>42796</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="81" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="59" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="63" t="s">
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="60"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67"/>
+      <c r="AW6" s="68"/>
       <c r="AX6" s="49"/>
       <c r="AY6" s="49"/>
       <c r="AZ6" s="49"/>
       <c r="BA6" s="50"/>
     </row>
     <row r="7" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="60"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="67"/>
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67"/>
+      <c r="AW7" s="68"/>
       <c r="AX7" s="49"/>
       <c r="AY7" s="49"/>
       <c r="AZ7" s="49"/>
       <c r="BA7" s="50"/>
     </row>
     <row r="8" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="59"/>
-      <c r="AW8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="68"/>
       <c r="AX8" s="49"/>
       <c r="AY8" s="49"/>
       <c r="AZ8" s="49"/>
       <c r="BA8" s="50"/>
     </row>
     <row r="9" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="59"/>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="59"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="59"/>
-      <c r="AV9" s="59"/>
-      <c r="AW9" s="60"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="68"/>
       <c r="AX9" s="49"/>
       <c r="AY9" s="49"/>
       <c r="AZ9" s="49"/>
       <c r="BA9" s="50"/>
     </row>
     <row r="10" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="60"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="68"/>
       <c r="AX10" s="49"/>
       <c r="AY10" s="49"/>
       <c r="AZ10" s="49"/>
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="59"/>
-      <c r="AW11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="67"/>
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="67"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="68"/>
       <c r="AX11" s="49"/>
       <c r="AY11" s="49"/>
       <c r="AZ11" s="49"/>
       <c r="BA11" s="50"/>
     </row>
     <row r="12" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="67"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="67"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="67"/>
+      <c r="AU12" s="67"/>
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="68"/>
       <c r="AX12" s="49"/>
       <c r="AY12" s="49"/>
       <c r="AZ12" s="49"/>
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="60"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="68"/>
       <c r="AX13" s="49"/>
       <c r="AY13" s="49"/>
       <c r="AZ13" s="49"/>
       <c r="BA13" s="50"/>
     </row>
     <row r="14" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="60"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="68"/>
       <c r="AX14" s="49"/>
       <c r="AY14" s="49"/>
       <c r="AZ14" s="49"/>
@@ -6188,6 +6133,7 @@
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="Y9:AW9"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -6198,7 +6144,6 @@
     <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="N10:X10"/>
     <mergeCell ref="AT2:AW3"/>
     <mergeCell ref="AP2:AS3"/>
     <mergeCell ref="N8:X8"/>
@@ -6240,10 +6185,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6261,65 +6206,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="92" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="91" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6597,20 +6542,208 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="5"/>
+    <row r="14" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="53">
+        <f t="shared" ref="A14:A20" si="1">ROW()-5</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="54">
+        <v>256</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="54">
+        <v>1024</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="54">
+        <v>32</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="54">
+        <v>128</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="54">
+        <v>32</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="53">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="54">
+        <v>128</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="54">
+        <v>32</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6635,7 +6768,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L12">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D14:D21">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6677,65 +6810,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6954,65 +7087,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="92" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="91" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7211,65 +7344,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="101" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="52"/>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7609,65 +7742,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7910,7 +8043,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7929,65 +8062,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="95" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="95" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="100" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8354,789 +8487,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <f t="shared" ref="A6:A28" si="0">ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5">
-        <v>256</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1024</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5">
-        <v>128</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="5">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="5">
-        <v>128</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="5">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5">
-        <v>64</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5">
-        <v>512</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5">
-        <v>64</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1024</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="5">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="5">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="5">
-        <v>512</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D29">
-      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G6">
-      <formula1>"○"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="918" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
     <sheet name="UME_USER" sheetId="46" r:id="rId2"/>
-    <sheet name="UME_ROLE" sheetId="36" r:id="rId3"/>
-    <sheet name="UME_USER_ROLE" sheetId="41" r:id="rId4"/>
-    <sheet name="UME_RESOURCE" sheetId="48" r:id="rId5"/>
-    <sheet name="UME_ROLE_ACL" sheetId="38" r:id="rId6"/>
-    <sheet name="UME_SEQ" sheetId="49" r:id="rId7"/>
+    <sheet name="UME_WECHAT_USER" sheetId="50" r:id="rId3"/>
+    <sheet name="UME_ROLE" sheetId="36" r:id="rId4"/>
+    <sheet name="UME_USER_ROLE" sheetId="41" r:id="rId5"/>
+    <sheet name="UME_RESOURCE" sheetId="48" r:id="rId6"/>
+    <sheet name="UME_ROLE_ACL" sheetId="38" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">UME_RESOURCE!$A$1:$I$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">UME_ROLE!$A$1:$I$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">UME_ROLE_ACL!$A$1:$I$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">UME_SEQ!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">UME_RESOURCE!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">UME_ROLE!$A$1:$I$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">UME_ROLE_ACL!$A$1:$I$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">UME_USER!$A$1:$M$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">UME_USER_ROLE!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">UME_USER_ROLE!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">UME_WECHAT_USER!$A$1:$M$6</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="143">
   <si>
     <t>○</t>
   </si>
@@ -486,63 +486,6 @@
     <t>0:使用不可 1:只读 2:更新 4:读写</t>
   </si>
   <si>
-    <t>UME_SEQ</t>
-  </si>
-  <si>
-    <t>采番名称</t>
-  </si>
-  <si>
-    <t>ITEM_NAME</t>
-  </si>
-  <si>
-    <t>MIN_VALUE</t>
-  </si>
-  <si>
-    <t>大整数</t>
-  </si>
-  <si>
-    <t>MAX_VALUE</t>
-  </si>
-  <si>
-    <t>当前值</t>
-  </si>
-  <si>
-    <t>CURRENT_INDEX</t>
-  </si>
-  <si>
-    <t>增量</t>
-  </si>
-  <si>
-    <t>INCREMENT_VALUE</t>
-  </si>
-  <si>
-    <t>ITEM_LENGTH</t>
-  </si>
-  <si>
-    <t>前缀</t>
-  </si>
-  <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
-    <t>后缀</t>
-  </si>
-  <si>
-    <t>POSTFIX</t>
-  </si>
-  <si>
-    <t>是否可重复</t>
-  </si>
-  <si>
-    <t>REPEATABLE</t>
-  </si>
-  <si>
-    <t>格式化扩展</t>
-  </si>
-  <si>
-    <t>FORMATTER</t>
-  </si>
-  <si>
     <t>USER_NICK_NAME</t>
   </si>
   <si>
@@ -579,9 +522,6 @@
     <t>供销通角色资源访问权限关系表</t>
   </si>
   <si>
-    <t>供销通自增长序列管理表</t>
-  </si>
-  <si>
     <t>USER_BANK_ACC_NO_OTHER</t>
   </si>
   <si>
@@ -625,6 +565,75 @@
   </si>
   <si>
     <t>用户收货地址(备用)</t>
+  </si>
+  <si>
+    <t>用户性别</t>
+  </si>
+  <si>
+    <t>USER_GENDER</t>
+  </si>
+  <si>
+    <t>1:男 2:女</t>
+  </si>
+  <si>
+    <t>用户描述信息</t>
+  </si>
+  <si>
+    <t>USER_DESC</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <t>WECHAT_SUBSCRIBE_TIME</t>
+  </si>
+  <si>
+    <t>关联微信属性</t>
+  </si>
+  <si>
+    <t>WECHAT_SUBSCRIBE</t>
+  </si>
+  <si>
+    <t>WECHAT_TAGID_LIST</t>
+  </si>
+  <si>
+    <t>WECHAT_GROUPID</t>
+  </si>
+  <si>
+    <t>WECHAT_PRIVILEGE</t>
+  </si>
+  <si>
+    <t>WECHAT_UNIONID</t>
+  </si>
+  <si>
+    <t>WECHAT_SEX</t>
+  </si>
+  <si>
+    <t>WECHAT_PROVINCE</t>
+  </si>
+  <si>
+    <t>WECHAT_NICKNAME</t>
+  </si>
+  <si>
+    <t>WECHAT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>WECHAT_HEADIMGURL</t>
+  </si>
+  <si>
+    <t>WECHAT_COUNTRY</t>
+  </si>
+  <si>
+    <t>WECHAT_CITY</t>
+  </si>
+  <si>
+    <t>WECHAT_OPENID</t>
+  </si>
+  <si>
+    <t>UME_WECHAT_USER</t>
+  </si>
+  <si>
+    <t>微信用户基础属性表</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1770,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="816">
+  <cellStyleXfs count="817">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3756,8 +3765,11 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3938,90 +3950,93 @@
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="23" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="24" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="19" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="101" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="19" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="23" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="24" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4085,8 +4100,26 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="24" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="816">
+  <cellStyles count="817">
     <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書" xfId="1"/>
     <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書 2" xfId="2"/>
     <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書 3" xfId="3"/>
@@ -4417,6 +4450,7 @@
     <cellStyle name="Normal - Style1 7" xfId="327"/>
     <cellStyle name="Normal - Style1 8" xfId="328"/>
     <cellStyle name="Normal 2" xfId="329"/>
+    <cellStyle name="Normal 2 2" xfId="816"/>
     <cellStyle name="Normal 3" xfId="330"/>
     <cellStyle name="Normal 4" xfId="331"/>
     <cellStyle name="Normal 5" xfId="332"/>
@@ -5329,61 +5363,61 @@
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
       <c r="AG1" s="76"/>
-      <c r="AH1" s="73" t="s">
+      <c r="AH1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73" t="s">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73" t="s">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73" t="s">
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="74"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="80"/>
     </row>
     <row r="2" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
@@ -5394,17 +5428,17 @@
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
-      <c r="G2" s="80">
+      <c r="G2" s="64">
         <v>20150001</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="75" t="s">
         <v>27</v>
       </c>
@@ -5425,30 +5459,30 @@
       <c r="AE2" s="75"/>
       <c r="AF2" s="75"/>
       <c r="AG2" s="75"/>
-      <c r="AH2" s="65">
+      <c r="AH2" s="74">
         <v>42796</v>
       </c>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="64" t="s">
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65">
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74">
         <v>42796</v>
       </c>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="64" t="s">
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
     </row>
     <row r="3" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
@@ -5457,15 +5491,15 @@
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
       <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="75"/>
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
@@ -5484,22 +5518,22 @@
       <c r="AE3" s="75"/>
       <c r="AF3" s="75"/>
       <c r="AG3" s="75"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
     </row>
     <row r="4" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="43"/>
@@ -5508,75 +5542,75 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="81" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="81" t="s">
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="70" t="s">
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="71"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="72"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="72"/>
+      <c r="AV5" s="72"/>
+      <c r="AW5" s="88"/>
       <c r="AX5" s="44"/>
       <c r="AY5" s="44"/>
       <c r="AZ5" s="44"/>
       <c r="BA5" s="45"/>
     </row>
     <row r="6" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84">
+      <c r="A6" s="69">
         <v>1</v>
       </c>
-      <c r="B6" s="85"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="61">
         <v>42796</v>
       </c>
@@ -5584,7 +5618,7 @@
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
       <c r="G6" s="63"/>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="73" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="62"/>
@@ -5592,486 +5626,486 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
       <c r="M6" s="63"/>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69" t="s">
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
-      <c r="AW6" s="68"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="84"/>
       <c r="AX6" s="49"/>
       <c r="AY6" s="49"/>
       <c r="AZ6" s="49"/>
       <c r="BA6" s="50"/>
     </row>
     <row r="7" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="61"/>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
       <c r="M7" s="63"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="68"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="84"/>
       <c r="AX7" s="49"/>
       <c r="AY7" s="49"/>
       <c r="AZ7" s="49"/>
       <c r="BA7" s="50"/>
     </row>
     <row r="8" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="61"/>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
       <c r="M8" s="63"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="68"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="84"/>
       <c r="AX8" s="49"/>
       <c r="AY8" s="49"/>
       <c r="AZ8" s="49"/>
       <c r="BA8" s="50"/>
     </row>
     <row r="9" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="61"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
       <c r="M9" s="63"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="68"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="84"/>
       <c r="AX9" s="49"/>
       <c r="AY9" s="49"/>
       <c r="AZ9" s="49"/>
       <c r="BA9" s="50"/>
     </row>
     <row r="10" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="61"/>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62"/>
       <c r="M10" s="63"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="67"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="68"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="84"/>
       <c r="AX10" s="49"/>
       <c r="AY10" s="49"/>
       <c r="AZ10" s="49"/>
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="61"/>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62"/>
       <c r="M11" s="63"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="68"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="84"/>
       <c r="AX11" s="49"/>
       <c r="AY11" s="49"/>
       <c r="AZ11" s="49"/>
       <c r="BA11" s="50"/>
     </row>
     <row r="12" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="61"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62"/>
       <c r="M12" s="63"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="68"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="84"/>
       <c r="AX12" s="49"/>
       <c r="AY12" s="49"/>
       <c r="AZ12" s="49"/>
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="61"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
       <c r="L13" s="62"/>
       <c r="M13" s="63"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="68"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="84"/>
       <c r="AX13" s="49"/>
       <c r="AY13" s="49"/>
       <c r="AZ13" s="49"/>
       <c r="BA13" s="50"/>
     </row>
     <row r="14" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="61"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="62"/>
       <c r="M14" s="63"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="68"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="84"/>
       <c r="AX14" s="49"/>
       <c r="AY14" s="49"/>
       <c r="AZ14" s="49"/>
@@ -6095,21 +6129,39 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -6126,39 +6178,21 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
   </mergeCells>
   <phoneticPr fontId="44"/>
   <dataValidations count="3">
@@ -6185,10 +6219,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6206,65 +6240,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="98" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="97" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6324,7 +6358,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A13" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A15" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6337,7 +6371,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
@@ -6367,7 +6401,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6384,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>65</v>
@@ -6393,7 +6427,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="5">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6410,16 +6444,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="5">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6430,22 +6464,22 @@
       <c r="L9" s="9"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6453,27 +6487,27 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L10" s="9"/>
+      <c r="M10" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="5">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6482,7 +6516,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -6492,16 +6526,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="5">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6509,10 +6543,10 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="L12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -6520,16 +6554,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -6539,79 +6573,79 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53">
-        <f t="shared" ref="A14:A20" si="1">ROW()-5</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="5">
         <v>256</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-    </row>
-    <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="53">
-        <f t="shared" si="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="54">
-        <v>1024</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="54" t="s">
-        <v>128</v>
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A16:A22" si="1">ROW()-5</f>
         <v>11</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="54">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -6628,16 +6662,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="54">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -6647,7 +6681,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="54" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -6656,10 +6690,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>41</v>
@@ -6682,10 +6716,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>41</v>
@@ -6701,7 +6735,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
       <c r="M19" s="54" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -6710,10 +6744,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>41</v>
@@ -6730,20 +6764,74 @@
       <c r="L20" s="58"/>
       <c r="M20" s="54"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="5"/>
+    <row r="21" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="54">
+        <v>128</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="53">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="54">
+        <v>32</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6762,13 +6850,13 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 F11:G13">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L9 L11:L13">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D14:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D23 D6:D9 D11:D14">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6783,6 +6871,607 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="98"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="98"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="115">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="110">
+        <v>32</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="110"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="115">
+        <f>ROW()-5</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="110">
+        <v>32</v>
+      </c>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="110"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="115">
+        <f>ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="110">
+        <v>64</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="110"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="115">
+        <f>ROW()-5</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="110">
+        <v>64</v>
+      </c>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="110"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="115">
+        <f>ROW()-5</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="110">
+        <v>512</v>
+      </c>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="110"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="115">
+        <f>ROW()-5</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="110">
+        <v>64</v>
+      </c>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="110"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="115">
+        <f>ROW()-5</f>
+        <v>7</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="110">
+        <v>1024</v>
+      </c>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="110"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="115">
+        <f>ROW()-5</f>
+        <v>8</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="110">
+        <v>64</v>
+      </c>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="110"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="115">
+        <f>ROW()-5</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="110">
+        <v>8</v>
+      </c>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="110"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="115">
+        <f>ROW()-5</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="110">
+        <v>64</v>
+      </c>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="110"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="115">
+        <f>ROW()-5</f>
+        <v>11</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="110">
+        <v>20</v>
+      </c>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="110"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="115">
+        <f>ROW()-5</f>
+        <v>12</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="110"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="110"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="115">
+        <f>ROW()-5</f>
+        <v>13</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="110">
+        <v>512</v>
+      </c>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="110"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="115">
+        <f>ROW()-5</f>
+        <v>14</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="110"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="115">
+        <f>ROW()-5</f>
+        <v>15</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="110"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="110"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="115"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="110"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="115"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G6 G7 G12">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -6810,65 +7499,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="101" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="101" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="106" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7060,7 +7749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -7087,65 +7776,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="98" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="97" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7315,7 +8004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -7344,65 +8033,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="101" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="52"/>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="106" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7714,7 +8403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -7722,8 +8411,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7742,65 +8431,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="101" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="101" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="106" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8032,459 +8721,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11" style="11" customWidth="1"/>
-    <col min="10" max="13" width="11" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="30">
-        <v>8</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="30">
-        <v>16</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="30">
-        <v>32</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="30">
-        <v>32</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="30">
-        <v>16</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="30">
-        <v>64</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="30">
-        <v>64</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="30">
-        <v>64</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L15">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15">
-      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G15">
-      <formula1>"○"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
@@ -5,28 +5,32 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmayye/Documents/Workspaces/ws_ume_projects/gxt-service-tool/input/design-table/cn.com.gxt.uac.entity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmayye/Documents/Workspaces/ws_ume_projects/gongxiaotong-service-tool/input/design-table/cn.com.gxt.uac.entity/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="918" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
     <sheet name="UME_USER" sheetId="46" r:id="rId2"/>
-    <sheet name="UME_WECHAT_USER" sheetId="50" r:id="rId3"/>
-    <sheet name="UME_ROLE" sheetId="36" r:id="rId4"/>
-    <sheet name="UME_USER_ROLE" sheetId="41" r:id="rId5"/>
-    <sheet name="UME_RESOURCE" sheetId="48" r:id="rId6"/>
-    <sheet name="UME_ROLE_ACL" sheetId="38" r:id="rId7"/>
+    <sheet name="UME_ROLE" sheetId="36" r:id="rId3"/>
+    <sheet name="UME_USER_ROLE" sheetId="41" r:id="rId4"/>
+    <sheet name="UME_RESOURCE" sheetId="48" r:id="rId5"/>
+    <sheet name="UME_ROLE_ACL" sheetId="38" r:id="rId6"/>
+    <sheet name="UME_WECHAT_USER" sheetId="50" r:id="rId7"/>
+    <sheet name="UME_USER_ADDRESS" sheetId="51" r:id="rId8"/>
+    <sheet name="UME_USER_PAYMENT" sheetId="52" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">UME_RESOURCE!$A$1:$I$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">UME_ROLE!$A$1:$I$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">UME_ROLE_ACL!$A$1:$I$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">UME_RESOURCE!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">UME_ROLE!$A$1:$I$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">UME_ROLE_ACL!$A$1:$I$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">UME_USER!$A$1:$M$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">UME_USER_ROLE!$A$1:$M$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">UME_WECHAT_USER!$A$1:$M$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">UME_USER_ADDRESS!$A$1:$M$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">UME_USER_PAYMENT!$A$1:$M$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">UME_USER_ROLE!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">UME_WECHAT_USER!$A$1:$M$6</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -196,8 +200,60 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="162">
   <si>
     <t>○</t>
   </si>
@@ -470,9 +526,6 @@
     <t>UME_ROLE_ACL</t>
   </si>
   <si>
-    <t>UME基础用户表系统设计</t>
-  </si>
-  <si>
     <t>0：系统运维
 90：菜单 91：URL  92：OTHER</t>
   </si>
@@ -522,51 +575,12 @@
     <t>供销通角色资源访问权限关系表</t>
   </si>
   <si>
-    <t>USER_BANK_ACC_NO_OTHER</t>
-  </si>
-  <si>
-    <t>USER_BANK_ACC_NAME_OTHER</t>
-  </si>
-  <si>
-    <t>USER_POST_ADDR_OTHER</t>
-  </si>
-  <si>
-    <t>多个名称的时候用分号“；”分隔</t>
-  </si>
-  <si>
-    <t>USER_POST_ADDR</t>
-  </si>
-  <si>
-    <t>USER_BANK_ACC_NO</t>
-  </si>
-  <si>
-    <t>USER_BANK_ACC_NAME</t>
-  </si>
-  <si>
     <t>USER_IDENTITY_CARD</t>
   </si>
   <si>
     <t>用户身份证号码</t>
   </si>
   <si>
-    <t>用户收货地址(默认)</t>
-  </si>
-  <si>
-    <t>用户银行账号(默认)</t>
-  </si>
-  <si>
-    <t>用户银行名称(默认)</t>
-  </si>
-  <si>
-    <t>用户银行名称(备用)</t>
-  </si>
-  <si>
-    <t>用户银行账号(备用)</t>
-  </si>
-  <si>
-    <t>用户收货地址(备用)</t>
-  </si>
-  <si>
     <t>用户性别</t>
   </si>
   <si>
@@ -634,6 +648,105 @@
   </si>
   <si>
     <t>微信用户基础属性表</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>用户配送地址管理表</t>
+  </si>
+  <si>
+    <t>CARD_STATUS</t>
+  </si>
+  <si>
+    <t>CARD_NUMBER</t>
+  </si>
+  <si>
+    <t>用户支付卡绑定管理表</t>
+  </si>
+  <si>
+    <t>UME_USER_ADDRESS</t>
+  </si>
+  <si>
+    <t>UME_USER_PAYMENT</t>
+  </si>
+  <si>
+    <t>地址类别</t>
+  </si>
+  <si>
+    <t>CONTACT_NUMBER</t>
+  </si>
+  <si>
+    <t>ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>CONTACT_PERSON</t>
+  </si>
+  <si>
+    <t>ADDRESS_PROVINCE</t>
+  </si>
+  <si>
+    <t>ADDRESS_CITY</t>
+  </si>
+  <si>
+    <t>ADDRESS_DISTRICT</t>
+  </si>
+  <si>
+    <t>ADDRESS_REST</t>
+  </si>
+  <si>
+    <t>地址(省)</t>
+  </si>
+  <si>
+    <t>地址(市)</t>
+  </si>
+  <si>
+    <t>地址(区)</t>
+  </si>
+  <si>
+    <t>地址(其余)</t>
+  </si>
+  <si>
+    <t>CARD_BANK</t>
+  </si>
+  <si>
+    <t>CARD_TYPE</t>
+  </si>
+  <si>
+    <t>支付卡类型</t>
+  </si>
+  <si>
+    <t>支付卡卡号</t>
+  </si>
+  <si>
+    <t>支付卡开户行</t>
+  </si>
+  <si>
+    <t>支付卡状态</t>
+  </si>
+  <si>
+    <t>支付卡有效期</t>
+  </si>
+  <si>
+    <t>CARD_EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>支付卡持卡人</t>
+  </si>
+  <si>
+    <t>CARD_OWNER</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>供销通基础用户表</t>
   </si>
 </sst>
 </file>
@@ -649,7 +762,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1293,6 +1406,12 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -3769,7 +3888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3953,6 +4072,48 @@
     <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="24" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="103" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4099,24 +4260,6 @@
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="99" fillId="24" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="99" fillId="0" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="817">
@@ -5343,10 +5486,10 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5355,185 +5498,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="65" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65" t="s">
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="65" t="s">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65" t="s">
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65" t="s">
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65" t="s">
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="80"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="94"/>
     </row>
     <row r="2" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="64">
-        <v>20150001</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="75" t="s">
+      <c r="A2" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="74">
-        <v>42796</v>
-      </c>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="86" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74">
-        <v>42796</v>
-      </c>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="86" t="s">
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
     </row>
     <row r="3" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
     </row>
     <row r="4" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="43"/>
@@ -5542,570 +5679,568 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="66" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="72" t="s">
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="72"/>
-      <c r="AW5" s="88"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="102"/>
       <c r="AX5" s="44"/>
       <c r="AY5" s="44"/>
       <c r="AZ5" s="44"/>
       <c r="BA5" s="45"/>
     </row>
     <row r="6" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69">
+      <c r="A6" s="83">
         <v>1</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="61">
-        <v>42796</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="73" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="83" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="87" t="s">
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="83"/>
-      <c r="AQ6" s="83"/>
-      <c r="AR6" s="83"/>
-      <c r="AS6" s="83"/>
-      <c r="AT6" s="83"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="84"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="98"/>
       <c r="AX6" s="49"/>
       <c r="AY6" s="49"/>
       <c r="AZ6" s="49"/>
       <c r="BA6" s="50"/>
     </row>
     <row r="7" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="84"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="98"/>
       <c r="AX7" s="49"/>
       <c r="AY7" s="49"/>
       <c r="AZ7" s="49"/>
       <c r="BA7" s="50"/>
     </row>
     <row r="8" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="83"/>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="84"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="98"/>
       <c r="AX8" s="49"/>
       <c r="AY8" s="49"/>
       <c r="AZ8" s="49"/>
       <c r="BA8" s="50"/>
     </row>
     <row r="9" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="84"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="97"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="97"/>
+      <c r="AW9" s="98"/>
       <c r="AX9" s="49"/>
       <c r="AY9" s="49"/>
       <c r="AZ9" s="49"/>
       <c r="BA9" s="50"/>
     </row>
     <row r="10" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="84"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="97"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="97"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="97"/>
+      <c r="AW10" s="98"/>
       <c r="AX10" s="49"/>
       <c r="AY10" s="49"/>
       <c r="AZ10" s="49"/>
       <c r="BA10" s="50"/>
     </row>
     <row r="11" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="83"/>
-      <c r="AW11" s="84"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="98"/>
       <c r="AX11" s="49"/>
       <c r="AY11" s="49"/>
       <c r="AZ11" s="49"/>
       <c r="BA11" s="50"/>
     </row>
     <row r="12" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="84"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="97"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="97"/>
+      <c r="AS12" s="97"/>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="97"/>
+      <c r="AW12" s="98"/>
       <c r="AX12" s="49"/>
       <c r="AY12" s="49"/>
       <c r="AZ12" s="49"/>
       <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="83"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="83"/>
-      <c r="AW13" s="84"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="98"/>
       <c r="AX13" s="49"/>
       <c r="AY13" s="49"/>
       <c r="AZ13" s="49"/>
       <c r="BA13" s="50"/>
     </row>
     <row r="14" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="84"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="97"/>
+      <c r="AW14" s="98"/>
       <c r="AX14" s="49"/>
       <c r="AY14" s="49"/>
       <c r="AZ14" s="49"/>
@@ -6219,10 +6354,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6240,65 +6375,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="99" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="98" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6418,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>65</v>
@@ -6444,10 +6579,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>41</v>
@@ -6470,10 +6605,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>42</v>
@@ -6489,7 +6624,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
       <c r="M10" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6554,10 +6689,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>41</v>
@@ -6573,7 +6708,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -6582,10 +6717,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>41</v>
@@ -6627,25 +6762,25 @@
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="53">
-        <f t="shared" ref="A16:A22" si="1">ROW()-5</f>
+        <f t="shared" ref="A16" si="1">ROW()-5</f>
         <v>11</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="54">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -6656,182 +6791,20 @@
       <c r="L16" s="58"/>
       <c r="M16" s="54"/>
     </row>
-    <row r="17" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="54">
-        <v>1024</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="54">
-        <v>32</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="54"/>
-    </row>
-    <row r="19" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="54">
-        <v>128</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="54">
-        <v>32</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="54"/>
-    </row>
-    <row r="21" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="53">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="54">
-        <v>128</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="54">
-        <v>32</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="54"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="5"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6856,7 +6829,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L9 L11:L13">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D23 D6:D9 D11:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 D11:D14 D16:D17">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6871,607 +6844,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115">
-        <f>ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="110">
-        <v>32</v>
-      </c>
-      <c r="F6" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="110"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="115">
-        <f>ROW()-5</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="110">
-        <v>32</v>
-      </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="110"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="115">
-        <f>ROW()-5</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="110">
-        <v>64</v>
-      </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="110"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="115">
-        <f>ROW()-5</f>
-        <v>4</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="110">
-        <v>64</v>
-      </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="110"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="115">
-        <f>ROW()-5</f>
-        <v>5</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="110">
-        <v>512</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="110"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="115">
-        <f>ROW()-5</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="110">
-        <v>64</v>
-      </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="110"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="115">
-        <f>ROW()-5</f>
-        <v>7</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="110">
-        <v>1024</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="110"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="115">
-        <f>ROW()-5</f>
-        <v>8</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="110">
-        <v>64</v>
-      </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="110"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="115">
-        <f>ROW()-5</f>
-        <v>9</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="110">
-        <v>8</v>
-      </c>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="110"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="115">
-        <f>ROW()-5</f>
-        <v>10</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="110">
-        <v>64</v>
-      </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="110"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="115">
-        <f>ROW()-5</f>
-        <v>11</v>
-      </c>
-      <c r="B16" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="110">
-        <v>20</v>
-      </c>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="115">
-        <f>ROW()-5</f>
-        <v>12</v>
-      </c>
-      <c r="B17" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="110"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="115">
-        <f>ROW()-5</f>
-        <v>13</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="110">
-        <v>512</v>
-      </c>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="110"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="115">
-        <f>ROW()-5</f>
-        <v>14</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="115">
-        <f>ROW()-5</f>
-        <v>15</v>
-      </c>
-      <c r="B20" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="110"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="115"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="115"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="110"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
-      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G6 G7 G12">
-      <formula1>"○"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -7499,65 +6871,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="102" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="102" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="107" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7749,7 +7121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -7776,65 +7148,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="99" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="98" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8004,7 +7376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -8033,65 +7405,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="102" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="108" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="52"/>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="107" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8208,7 +7580,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
       <c r="M7" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -8332,7 +7704,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>42</v>
@@ -8348,7 +7720,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -8403,7 +7775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
@@ -8411,7 +7783,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -8431,65 +7803,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="102" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="102" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="107" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8668,7 +8040,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
       <c r="M9" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -8721,4 +8093,1443 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="113"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="112"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="67">
+        <f t="shared" ref="A6:A20" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="62">
+        <v>32</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="67">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="62">
+        <v>32</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="67">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="62">
+        <v>64</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="62">
+        <v>64</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="62"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="67">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="62">
+        <v>512</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="67">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="62">
+        <v>64</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="62"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="67">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="62">
+        <v>1024</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="62"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="67">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="62">
+        <v>64</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="67">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="62">
+        <v>8</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="62">
+        <v>64</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="62"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="67">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="62">
+        <v>20</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="67">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="62"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="67">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="62">
+        <v>512</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="67">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="67">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="67"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="67"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G6 G7 G12">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="113"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="112"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74">
+        <f t="shared" ref="A6:A14" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="69">
+        <v>32</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="74">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="74">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="69">
+        <v>8</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="74">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="69">
+        <v>8</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="74">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="69">
+        <v>8</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="69">
+        <v>64</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="74">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="69">
+        <v>16</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="74">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="69">
+        <v>16</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="74">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="69">
+        <v>16</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="69"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="67"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G7">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="113"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="112"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74">
+        <f t="shared" ref="A6:A13" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="69">
+        <v>32</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="74">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="74">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="74">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="69">
+        <v>128</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="74">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="69">
+        <v>32</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="69">
+        <v>32</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="69"/>
+    </row>
+    <row r="12" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="74">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="69"/>
+    </row>
+    <row r="13" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="74">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="69">
+        <v>8</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="67"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G7">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#REV" sheetId="8" r:id="rId1"/>
+    <sheet name="#R" sheetId="8" r:id="rId1"/>
     <sheet name="UME_USER" sheetId="46" r:id="rId2"/>
     <sheet name="UME_ROLE" sheetId="36" r:id="rId3"/>
     <sheet name="UME_USER_ROLE" sheetId="41" r:id="rId4"/>
@@ -253,20 +253,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="161">
   <si>
     <t>○</t>
   </si>
   <si>
-    <t>TABLE SPACE</t>
-  </si>
-  <si>
-    <t>TABLE SPACE (IDX)</t>
-  </si>
-  <si>
-    <t>TABLE SPACE (LOB)</t>
-  </si>
-  <si>
     <t>项目ID</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
   </si>
   <si>
     <t>数据库规格设计</t>
-  </si>
-  <si>
-    <t>」</t>
   </si>
   <si>
     <t>序号</t>
@@ -747,6 +735,15 @@
   </si>
   <si>
     <t>供销通基础用户表</t>
+  </si>
+  <si>
+    <t>表空间</t>
+  </si>
+  <si>
+    <t>表空间(LOB)</t>
+  </si>
+  <si>
+    <t>更新历史开启</t>
   </si>
 </sst>
 </file>
@@ -762,7 +759,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1380,17 +1377,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
@@ -1398,12 +1384,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Microsoft YaHei Light"/>
@@ -1412,6 +1392,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -1563,12 +1549,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1743,151 +1729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="817">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3888,7 +3729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3997,82 +3838,46 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="332" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="0" xfId="762" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="0" xfId="762" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="104" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="101" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="104" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="101" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4093,119 +3898,26 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="102" fillId="24" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="102" fillId="0" borderId="3" xfId="816" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="816" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="23" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="24" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="19" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4216,6 +3928,48 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="8" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="9" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4225,41 +3979,59 @@
     <xf numFmtId="0" fontId="98" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="8" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="9" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="14" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="817">
@@ -5486,817 +5258,796 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.3984375" style="47"/>
+    <col min="1" max="16384" width="3.3984375" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:53" s="83" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="79" t="s">
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79" t="s">
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94"/>
+      <c r="AP1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="79" t="s">
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79" t="s">
+      <c r="AU1" s="94"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="94"/>
+    </row>
+    <row r="2" spans="1:53" s="83" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+    </row>
+    <row r="3" spans="1:53" s="83" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
+    </row>
+    <row r="4" spans="1:53" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="85"/>
+    </row>
+    <row r="5" spans="1:53" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79" t="s">
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="94"/>
-    </row>
-    <row r="2" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="89" t="s">
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="98"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="98"/>
+      <c r="AV5" s="98"/>
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="87"/>
+    </row>
+    <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="92">
+        <v>1</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-    </row>
-    <row r="3" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="88"/>
-      <c r="AT3" s="88"/>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-    </row>
-    <row r="4" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="43"/>
-      <c r="AL4" s="42" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="99" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="80" t="s">
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="45"/>
-    </row>
-    <row r="6" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="83">
-        <v>1</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="50"/>
-    </row>
-    <row r="7" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="97"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="50"/>
-    </row>
-    <row r="8" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="50"/>
-    </row>
-    <row r="9" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="97"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="97"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="97"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="49"/>
-      <c r="BA9" s="50"/>
-    </row>
-    <row r="10" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="97"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="97"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="50"/>
-    </row>
-    <row r="11" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="97"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="97"/>
-      <c r="AT11" s="97"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="97"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="50"/>
-    </row>
-    <row r="12" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="97"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="97"/>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="50"/>
-    </row>
-    <row r="13" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="50"/>
-    </row>
-    <row r="14" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
-      <c r="AP14" s="97"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="97"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="97"/>
-      <c r="AW14" s="98"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="50"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="99"/>
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="99"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="90"/>
+    </row>
+    <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="90"/>
+    </row>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="90"/>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="90"/>
+    </row>
+    <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="90"/>
+    </row>
+    <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="89"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="90"/>
+    </row>
+    <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="90"/>
+    </row>
+    <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="90"/>
+    </row>
+    <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="89"/>
+      <c r="AY14" s="89"/>
+      <c r="AZ14" s="89"/>
+      <c r="BA14" s="90"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -6313,21 +6064,39 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="44"/>
   <dataValidations count="3">
@@ -6356,8 +6125,8 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6375,65 +6144,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6452,43 +6221,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6497,13 +6266,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
         <v>32</v>
@@ -6527,13 +6296,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5">
         <v>32</v>
@@ -6553,13 +6322,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5">
         <v>256</v>
@@ -6579,13 +6348,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5">
         <v>256</v>
@@ -6605,13 +6374,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -6624,7 +6393,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
       <c r="M10" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6633,13 +6402,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5">
         <v>16</v>
@@ -6651,7 +6420,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -6661,13 +6430,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5">
         <v>64</v>
@@ -6679,7 +6448,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -6689,13 +6458,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5">
         <v>256</v>
@@ -6708,7 +6477,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -6717,13 +6486,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5">
         <v>256</v>
@@ -6743,13 +6512,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -6762,34 +6531,34 @@
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41">
         <f t="shared" ref="A16" si="1">ROW()-5</f>
         <v>11</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="54">
+      <c r="B16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="42">
         <v>32</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="54"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -6823,7 +6592,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 F11:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 F11:G13 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L9 L11:L13">
@@ -6852,7 +6621,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6871,65 +6640,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6948,43 +6717,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6993,13 +6762,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="12">
         <v>32</v>
@@ -7023,13 +6792,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12">
         <v>64</v>
@@ -7049,13 +6818,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="12">
         <v>128</v>
@@ -7101,7 +6870,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9">
@@ -7130,7 +6899,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7148,65 +6917,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7225,43 +6994,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7270,13 +7039,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="18">
         <v>32</v>
@@ -7300,13 +7069,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="18">
         <v>32</v>
@@ -7356,7 +7125,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8">
@@ -7385,7 +7154,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7405,65 +7174,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7482,43 +7251,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7527,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="24">
         <v>32</v>
@@ -7557,13 +7326,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" s="24">
         <v>2</v>
@@ -7580,7 +7349,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
       <c r="M7" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -7589,13 +7358,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="24">
         <v>64</v>
@@ -7608,7 +7377,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
       <c r="M8" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -7617,13 +7386,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="24">
         <v>64</v>
@@ -7636,7 +7405,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="28"/>
       <c r="M9" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7645,13 +7414,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="24">
         <v>1024</v>
@@ -7664,7 +7433,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
       <c r="M10" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -7673,13 +7442,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11" s="24">
         <v>8</v>
@@ -7692,7 +7461,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
       <c r="M11" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -7701,13 +7470,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="24">
         <v>1</v>
@@ -7720,7 +7489,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -7755,7 +7524,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G12 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L12">
@@ -7784,7 +7553,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7803,65 +7572,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7880,43 +7649,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7925,13 +7694,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" s="30">
         <v>32</v>
@@ -7955,13 +7724,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="30">
         <v>32</v>
@@ -7985,13 +7754,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
@@ -8015,13 +7784,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="30">
         <v>2</v>
@@ -8033,14 +7802,14 @@
         <v>0</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
       <c r="M9" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -8075,7 +7844,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9">
@@ -8104,7 +7873,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -8122,65 +7891,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8198,467 +7967,467 @@
       <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60" t="s">
-        <v>29</v>
+      <c r="A5" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="67">
+      <c r="A6" s="55">
         <f t="shared" ref="A6:A20" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>63</v>
+      <c r="B6" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="62">
+        <v>60</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="50">
         <v>32</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="62"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="67">
+      <c r="A7" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="62">
+      <c r="B7" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="50">
         <v>32</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="62"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="67">
+      <c r="A8" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="62">
+      <c r="B8" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="50">
         <v>64</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="62"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="62">
+      <c r="B9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="50">
         <v>64</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="62"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="67">
+      <c r="A10" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="62">
+      <c r="B10" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="50">
         <v>512</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="62"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="67">
+      <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="62">
+      <c r="B11" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="50">
         <v>64</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="62"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="67">
+      <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="62">
+      <c r="B12" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="50">
         <v>1024</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="62"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="67">
+      <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="62">
+      <c r="B13" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="50">
         <v>64</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="62"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="67">
+      <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="62">
+      <c r="B14" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="50">
         <v>8</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="62"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="62">
+      <c r="B15" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="50">
         <v>64</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="62"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="67">
+      <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="62">
+      <c r="D16" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="50">
         <v>20</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="62"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="67">
+      <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="62"/>
+      <c r="B17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="67">
+      <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="62">
+      <c r="B18" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="50">
         <v>512</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="62"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="67">
+      <c r="A19" s="55">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="62"/>
+      <c r="B19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="67">
+      <c r="A20" s="55">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="62"/>
+      <c r="B20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="62"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="50"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="62"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8679,7 +8448,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G6 G7 G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G6 G7 G12 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
@@ -8705,7 +8474,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -8723,65 +8492,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="106" t="s">
+      <c r="A1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8799,303 +8568,307 @@
       <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
-        <v>29</v>
+      <c r="A5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74">
+    </row>
+    <row r="6" spans="1:13" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="62">
         <f t="shared" ref="A6:A14" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="69">
+      <c r="B6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="57">
         <v>32</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="69"/>
-    </row>
-    <row r="7" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="72" t="s">
+      <c r="B7" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="69"/>
-    </row>
-    <row r="8" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="57"/>
+    </row>
+    <row r="8" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="69">
+      <c r="C8" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="57">
         <v>8</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="69"/>
-    </row>
-    <row r="9" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="57"/>
+    </row>
+    <row r="9" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="69">
+      <c r="C9" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="57">
         <v>8</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="69"/>
-    </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="57"/>
+    </row>
+    <row r="10" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="62">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="69" t="s">
+      <c r="B10" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="69">
+      <c r="C10" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="57">
         <v>8</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="69"/>
-    </row>
-    <row r="11" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="57"/>
+    </row>
+    <row r="11" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="62">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="69">
+      <c r="C11" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="57">
         <v>64</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="69"/>
-    </row>
-    <row r="12" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="62">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="69">
+      <c r="B12" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="57">
         <v>16</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="69"/>
-    </row>
-    <row r="13" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="69">
+      <c r="B13" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="57">
         <v>16</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="69"/>
-    </row>
-    <row r="14" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="62">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="69">
+      <c r="B14" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="57">
         <v>16</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="69"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="62"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -9104,13 +8877,9 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G7 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7">
@@ -9139,7 +8908,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -9157,65 +8926,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="A2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
+      <c r="A3" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -9233,273 +9002,277 @@
       <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
-        <v>29</v>
+      <c r="A5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74">
+    </row>
+    <row r="6" spans="1:13" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="62">
         <f t="shared" ref="A6:A13" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="69">
+      <c r="B6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="57">
         <v>32</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="69"/>
-    </row>
-    <row r="7" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="72" t="s">
+      <c r="B7" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="69"/>
-    </row>
-    <row r="8" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="57"/>
+    </row>
+    <row r="8" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="69"/>
-    </row>
-    <row r="9" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74">
+      <c r="B8" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="57"/>
+    </row>
+    <row r="9" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="69">
+      <c r="B9" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="57">
         <v>128</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="69"/>
-    </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="57"/>
+    </row>
+    <row r="10" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="62">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="69">
+      <c r="B10" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="57">
         <v>32</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="69"/>
-    </row>
-    <row r="11" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="57"/>
+    </row>
+    <row r="11" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="62">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="69">
+      <c r="C11" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="57">
         <v>32</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="69"/>
-    </row>
-    <row r="12" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="62">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="69"/>
-    </row>
-    <row r="13" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74">
+      <c r="E12" s="57"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="69">
+      <c r="B13" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="57">
         <v>8</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="69"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="62"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -9508,16 +9281,12 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G7 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14">

--- a/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.uac.entity/DB设计-供销通-基础用户表v0.1.xlsx
@@ -20,7 +20,7 @@
     <sheet name="UME_ROLE_ACL" sheetId="38" r:id="rId6"/>
     <sheet name="UME_WECHAT_USER" sheetId="50" r:id="rId7"/>
     <sheet name="UME_USER_ADDRESS" sheetId="51" r:id="rId8"/>
-    <sheet name="UME_USER_PAYMENT" sheetId="52" r:id="rId9"/>
+    <sheet name="UME_USER_CARD" sheetId="52" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">UME_RESOURCE!$A$1:$I$12</definedName>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">UME_ROLE_ACL!$A$1:$I$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">UME_USER!$A$1:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">UME_USER_ADDRESS!$A$1:$M$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">UME_USER_PAYMENT!$A$1:$M$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">UME_USER_CARD!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">UME_USER_ROLE!$A$1:$M$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">UME_WECHAT_USER!$A$1:$M$6</definedName>
   </definedNames>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="161">
   <si>
     <t>○</t>
   </si>
@@ -659,9 +659,6 @@
     <t>UME_USER_ADDRESS</t>
   </si>
   <si>
-    <t>UME_USER_PAYMENT</t>
-  </si>
-  <si>
     <t>地址类别</t>
   </si>
   <si>
@@ -744,6 +741,9 @@
   </si>
   <si>
     <t>更新历史开启</t>
+  </si>
+  <si>
+    <t>UME_USER_CARD</t>
   </si>
 </sst>
 </file>
@@ -3919,6 +3919,63 @@
     <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="816" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3928,12 +3985,30 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="103" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="26" borderId="8" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3957,81 +4032,6 @@
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="817">
@@ -5266,770 +5266,770 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.3984375" style="91"/>
+    <col min="1" max="16384" width="3.3984375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="83" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:53" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94" t="s">
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94" t="s">
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94" t="s">
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="94" t="s">
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-    </row>
-    <row r="2" spans="1:53" s="83" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96" t="s">
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+    </row>
+    <row r="2" spans="1:53" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97" t="s">
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-    </row>
-    <row r="3" spans="1:53" s="83" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-    </row>
-    <row r="4" spans="1:53" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="85"/>
-    </row>
-    <row r="5" spans="1:53" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="98" t="s">
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+    </row>
+    <row r="3" spans="1:53" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+    </row>
+    <row r="4" spans="1:53" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="1:53" s="68" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98" t="s">
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="86"/>
-      <c r="BA5" s="87"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="67"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92">
+      <c r="A6" s="72">
         <v>1</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="99" t="s">
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="100" t="s">
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="99"/>
-      <c r="AW6" s="99"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="89"/>
-      <c r="BA6" s="90"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="75"/>
+      <c r="AP6" s="75"/>
+      <c r="AQ6" s="75"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="70"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="90"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="70"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="90"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="70"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="90"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="70"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="90"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="70"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="90"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="70"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="90"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="70"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="99"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="90"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="75"/>
+      <c r="AP13" s="75"/>
+      <c r="AQ13" s="75"/>
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="75"/>
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="75"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="70"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="89"/>
-      <c r="BA14" s="90"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="70"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -6126,7 +6126,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6144,65 +6144,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6640,65 +6640,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6917,65 +6917,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7174,65 +7174,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7572,65 +7572,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7891,65 +7891,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8474,7 +8474,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -8492,65 +8492,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -8672,10 +8674,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>37</v>
@@ -8698,10 +8700,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>37</v>
@@ -8724,10 +8726,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>37</v>
@@ -8750,10 +8752,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>37</v>
@@ -8776,10 +8778,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>137</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>37</v>
@@ -8805,7 +8807,7 @@
         <v>125</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>37</v>
@@ -8828,10 +8830,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="61" t="s">
         <v>37</v>
@@ -8908,7 +8910,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -8926,65 +8928,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="76" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -9106,10 +9110,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>38</v>
@@ -9130,7 +9134,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>129</v>
@@ -9156,10 +9160,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>154</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>155</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>37</v>
@@ -9182,10 +9186,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>37</v>
@@ -9208,13 +9212,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>153</v>
-      </c>
       <c r="D12" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="60"/>
@@ -9232,7 +9236,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>128</v>
